--- a/code-check.xlsx
+++ b/code-check.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Wasser\Documents\aea_workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rschfs1x\userRS\K-Q\nwl27_RS\Documents\Workspace\socarxiv\replication-h2sk6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3963F68-C690-434C-BB43-EA4B0B172AFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{EBB9EDCE-F574-4B6C-B7A1-32A44335C4E5}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Figure/Table #</t>
   </si>
@@ -46,12 +45,30 @@
   </si>
   <si>
     <t>Replicated?</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>decline.do</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>coming divorce decline with newlyweds.do</t>
+  </si>
+  <si>
+    <t>Figure 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,21 +424,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0543ACC-6A13-456A-A70D-A1A2A190529B}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.796875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,17 +453,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
